--- a/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
+++ b/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC02_Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B1B25-1370-4565-ACF9-2F2E51DD8230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57586E-2EC3-497D-B274-0B6102321E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Test ID</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Employee is registered and appears in the employees list.</t>
+  </si>
+  <si>
+    <t>Field should have visible placeholders.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,28 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -312,27 +336,6 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -347,17 +350,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:I498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{DEA1A7DB-57C3-4EAB-9622-EB6A4B852E3A}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DEA1A7DB-57C3-4EAB-9622-EB6A4B852E3A}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -629,7 +632,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +789,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>40</v>

--- a/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
+++ b/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC02_Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57586E-2EC3-497D-B274-0B6102321E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB880BB-8EE3-4CBB-9843-FD5D8CB6384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
+++ b/Documents/1_TestCases/TC02_Register/TC02_Register_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC02_Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB880BB-8EE3-4CBB-9843-FD5D8CB6384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA289B0-D3D2-4072-B9CF-510013A778EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Test ID</t>
   </si>
@@ -183,9 +183,6 @@
 3.Validation error should arise about max character length.</t>
   </si>
   <si>
-    <t>Manual or Automated</t>
-  </si>
-  <si>
     <t>Verify that the newly added employee appears in the employee list/table after submission.</t>
   </si>
   <si>
@@ -199,6 +196,27 @@
   </si>
   <si>
     <t>Field should have visible placeholders.</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Automated
+Bug: Register_B01</t>
+  </si>
+  <si>
+    <t>Automated
+Bug: Register_B03</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Manual
+Bug: Register_B02</t>
   </si>
 </sst>
 </file>
@@ -631,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +709,12 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -708,6 +732,12 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -725,6 +755,12 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -742,6 +778,12 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -759,6 +801,12 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -776,6 +824,12 @@
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -791,10 +845,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -802,16 +859,19 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="60" x14ac:dyDescent="0.25">
